--- a/biology/Médecine/Shanghan_Lun/Shanghan_Lun.xlsx
+++ b/biology/Médecine/Shanghan_Lun/Shanghan_Lun.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Rédigé au début du IIIe siècle par Zhang Zhongjing (25 – 220), le Shanghan Lun 傷寒論 [Traité des attaques du froid] fait partie des quatre classiques fondamentaux de la médecine chinoise (Neijing, Shanghan Lun, Jinggui yaolüe et Shennong bencao jing). Il est considéré comme la première grande référence en matière de médecine clinique. De tous les ouvrages de médecine chinoise, il est celui qui a fait l’objet des commentaires les plus nombreux. Il est encore aujourd’hui le texte le plus soumis aux travaux de recherches partout dans le monde, notamment au Japon, aux États-Unis, en Australie, à Singapour, en Russie, en France et en Suisse.
 Le Shanghanlun 傷寒論 faisait originellement partie (comme le Jingui yaolüe) d’un ouvrage source perdu peu après sa rédaction vers 200, le Shanghan zabing lun 傷寒雜病論 [Traité des attaques du Froid et de diverses maladies]. Il a posé les bases de la manière dont la Médecine chinoise a évolué jusqu’à nos jours.
@@ -512,7 +524,9 @@
           <t>Conception et histoire de l'ouvrage</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Zhang Ji 張機, plus connu sous le nom de Zhang Zhongjing 張仲景, serait né entre 142 et 152 à Nieyang (aujourd’hui Nanyang), dans la province du Henan. On ne connaît que peu de d’éléments de sa vie, Seuls des récits au caractère hagiographique, le décrivant comme l’archétype du médecin aux capacités extraordinaires de diagnostic et de pronostic, nous ont été transmis au cours des siècles.
 Selon la légende, ce serait l’accroissement des épidémies dû aux insurrections paysannes et aux ravages des conflits entre chefs d’armées rivaux, survenus durant cette période de fin de règne qui l’aurait incité à étudier la médecine avec énergie et détermination. D’après l’auto-préface attribuée à Zhang Zhongjing, ce sont ces événements qui l’amenèrent à rédiger, en s’appuyant sur des traités pratiques et des textes plus théoriques, comme le Neijing ou le Nanjing, le Shanghan zabing lun [Traité des attaques du Froid et de diverses maladies].
@@ -549,7 +563,9 @@
           <t>Les commentateurs du Shanghan Lun</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L’exégèse qui entoure le Shanghan Lun est extrêmement abondante. On considère qu’il y aurait plus de cinq cents commentateurs de ce texte ; les plus célèbres étant Cheng Wuji, Fang Youzhi, Ke Qin, You Zaijing. Parmi les éditions commentés les plus connues, citons : le Zhujie shanghanlun 注解傷寒論 [Traité des attaques du Froid annoté] publié en 1144 par Cheng Wuji ; le Shanghanlun tiaobian 傷寒論條辨 [Analyse détaillée du Shanghanlun] de Fang Youzhi, édité en 1589 ; le Shanghan laisu ji 傷寒來蘇集 [Compilation pour faire revivre (le Traité) des attaques du Froid], rédigé en 1669, dans lequel son auteur, Ke Qin, réunit les formules par familles, au lieu de suivre linéairement le texte. Mentionnons également le Shanghan guanzhu ji 傷寒貫珠集 [Compilation en enfilage de perles (du traité) des attaques du Froid] publié en 1729 par You Zaijing, organisé selon les méthodes thérapeutiques.
 </t>
@@ -580,7 +596,9 @@
           <t>Analyse du contenu</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le fondement historique du Shanghan Lun et les théories concernant sa structure sont sujets à controverses. L’organisation générale du texte nous provient du remaniement de Wang Shuhe et sa division en six états pathologiques (maladie taiyang, maladie yangming, maladie shaoyang, maladie taiyin, maladie
 shaoyin, et maladie jueyin) semble émaner du Suwen. Elle suit la dialectique générale du Yin/Yang à travers trois niveaux de Yang et trois niveaux de Yin avec, pour chacun d’entre eux, une subdivision en de nombreux tableaux cliniques débouchant, généralement, sur une prescription spécifique. L’ensemble du traité contient 398 articles et 113 formules liés à des syndromes spécifiques. En outre, il est important de souligner que, malgré son titre, le « Traité des attaques du Froid » est loin d’être exclusivement consacré aux maladies générées par le Froid externe et que ses tableaux cliniques sont largement utilisés dans le traitement des maladies courantes (pneumologiques, gastroentérologiques, gynécologiques, neurologiques, auto-immunes, psychiatriques, dermatologiques, endocriniennes, etc.), que celle-ci soient aiguës ou chroniques, d’origine externe ou interne.
